--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.03105</v>
+        <v>0.3839505</v>
       </c>
       <c r="H2">
-        <v>0.09315</v>
+        <v>0.7679009999999999</v>
       </c>
       <c r="I2">
-        <v>0.0006063800713733105</v>
+        <v>0.0001045985963268868</v>
       </c>
       <c r="J2">
-        <v>0.0006070110499600787</v>
+        <v>6.973660278950075E-05</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N2">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O2">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P2">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q2">
-        <v>0.24623659125</v>
+        <v>3.6056419023015</v>
       </c>
       <c r="R2">
-        <v>1.4774195475</v>
+        <v>14.422567609206</v>
       </c>
       <c r="S2">
-        <v>6.289634890509523E-05</v>
+        <v>7.647408399421281E-06</v>
       </c>
       <c r="T2">
-        <v>4.440891205254988E-05</v>
+        <v>3.53624357240259E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.03105</v>
+        <v>0.3839505</v>
       </c>
       <c r="H3">
-        <v>0.09315</v>
+        <v>0.7679009999999999</v>
       </c>
       <c r="I3">
-        <v>0.0006063800713733105</v>
+        <v>0.0001045985963268868</v>
       </c>
       <c r="J3">
-        <v>0.0006070110499600787</v>
+        <v>6.973660278950075E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>19.794779</v>
       </c>
       <c r="O3">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P3">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q3">
-        <v>0.20487596265</v>
+        <v>2.5334050981465</v>
       </c>
       <c r="R3">
-        <v>1.84388366385</v>
+        <v>15.200430588879</v>
       </c>
       <c r="S3">
-        <v>5.233158063018653E-05</v>
+        <v>5.373241145865241E-06</v>
       </c>
       <c r="T3">
-        <v>5.542424804220895E-05</v>
+        <v>3.726966405993106E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.03105</v>
+        <v>0.3839505</v>
       </c>
       <c r="H4">
-        <v>0.09315</v>
+        <v>0.7679009999999999</v>
       </c>
       <c r="I4">
-        <v>0.0006063800713733105</v>
+        <v>0.0001045985963268868</v>
       </c>
       <c r="J4">
-        <v>0.0006070110499600787</v>
+        <v>6.973660278950075E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N4">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O4">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P4">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q4">
-        <v>0.83287653705</v>
+        <v>11.653893642597</v>
       </c>
       <c r="R4">
-        <v>7.49588883345</v>
+        <v>69.923361855582</v>
       </c>
       <c r="S4">
-        <v>0.0002127421152284339</v>
+        <v>2.471739749626037E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002253146498052354</v>
+        <v>1.714438410846839E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.03105</v>
+        <v>0.3839505</v>
       </c>
       <c r="H5">
-        <v>0.09315</v>
+        <v>0.7679009999999999</v>
       </c>
       <c r="I5">
-        <v>0.0006063800713733105</v>
+        <v>0.0001045985963268868</v>
       </c>
       <c r="J5">
-        <v>0.0006070110499600787</v>
+        <v>6.973660278950075E-05</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N5">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O5">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P5">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q5">
-        <v>0.144165134475</v>
+        <v>2.134161977715</v>
       </c>
       <c r="R5">
-        <v>0.86499080685</v>
+        <v>8.536647910859999</v>
       </c>
       <c r="S5">
-        <v>3.682418015884377E-05</v>
+        <v>4.526463990693464E-06</v>
       </c>
       <c r="T5">
-        <v>2.600026562032869E-05</v>
+        <v>2.093085442385011E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.03105</v>
+        <v>0.3839505</v>
       </c>
       <c r="H6">
-        <v>0.09315</v>
+        <v>0.7679009999999999</v>
       </c>
       <c r="I6">
-        <v>0.0006063800713733105</v>
+        <v>0.0001045985963268868</v>
       </c>
       <c r="J6">
-        <v>0.0006070110499600787</v>
+        <v>6.973660278950075E-05</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N6">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O6">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P6">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q6">
-        <v>0.23520655485</v>
+        <v>19.7503636784515</v>
       </c>
       <c r="R6">
-        <v>2.11685899365</v>
+        <v>118.502182070709</v>
       </c>
       <c r="S6">
-        <v>6.007894059738377E-05</v>
+        <v>4.188965548403627E-05</v>
       </c>
       <c r="T6">
-        <v>6.362945788535542E-05</v>
+        <v>2.905533820453321E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.03105</v>
+        <v>0.3839505</v>
       </c>
       <c r="H7">
-        <v>0.09315</v>
+        <v>0.7679009999999999</v>
       </c>
       <c r="I7">
-        <v>0.0006063800713733105</v>
+        <v>0.0001045985963268868</v>
       </c>
       <c r="J7">
-        <v>0.0006070110499600787</v>
+        <v>6.973660278950075E-05</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N7">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O7">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P7">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q7">
-        <v>0.7105919908499998</v>
+        <v>9.639251488043499</v>
       </c>
       <c r="R7">
-        <v>6.395327917649999</v>
+        <v>57.835508928261</v>
       </c>
       <c r="S7">
-        <v>0.0001815069058533673</v>
+        <v>2.044442981061017E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001922335165544003</v>
+        <v>1.418058505571845E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>45.95545966666666</v>
+        <v>0.03105</v>
       </c>
       <c r="H8">
-        <v>137.866379</v>
+        <v>0.09315</v>
       </c>
       <c r="I8">
-        <v>0.8974710116800845</v>
+        <v>8.458867525761356E-06</v>
       </c>
       <c r="J8">
-        <v>0.8984048896509301</v>
+        <v>8.459377640922458E-06</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N8">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O8">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P8">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q8">
-        <v>364.4417306810583</v>
+        <v>0.29158753815</v>
       </c>
       <c r="R8">
-        <v>2186.65038408635</v>
+        <v>1.7495252289</v>
       </c>
       <c r="S8">
-        <v>0.09308955314939445</v>
+        <v>6.184443848934453E-07</v>
       </c>
       <c r="T8">
-        <v>0.06572727750954922</v>
+        <v>4.289629636753973E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>45.95545966666666</v>
+        <v>0.03105</v>
       </c>
       <c r="H9">
-        <v>137.866379</v>
+        <v>0.09315</v>
       </c>
       <c r="I9">
-        <v>0.8974710116800845</v>
+        <v>8.458867525761356E-06</v>
       </c>
       <c r="J9">
-        <v>0.8984048896509301</v>
+        <v>8.459377640922458E-06</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>19.794779</v>
       </c>
       <c r="O9">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P9">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q9">
-        <v>303.2260559816934</v>
+        <v>0.20487596265</v>
       </c>
       <c r="R9">
-        <v>2729.034503835241</v>
+        <v>1.84388366385</v>
       </c>
       <c r="S9">
-        <v>0.07745319945067476</v>
+        <v>4.345329347900725E-07</v>
       </c>
       <c r="T9">
-        <v>0.08203049260737721</v>
+        <v>4.520985396792789E-07</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>45.95545966666666</v>
+        <v>0.03105</v>
       </c>
       <c r="H10">
-        <v>137.866379</v>
+        <v>0.09315</v>
       </c>
       <c r="I10">
-        <v>0.8974710116800845</v>
+        <v>8.458867525761356E-06</v>
       </c>
       <c r="J10">
-        <v>0.8984048896509301</v>
+        <v>8.459377640922458E-06</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N10">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O10">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P10">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q10">
-        <v>1232.69642852542</v>
+        <v>0.9424480436999999</v>
       </c>
       <c r="R10">
-        <v>11094.26785672878</v>
+        <v>8.482032393300001</v>
       </c>
       <c r="S10">
-        <v>0.3148683315871706</v>
+        <v>1.998890982714919E-06</v>
       </c>
       <c r="T10">
-        <v>0.3334762737981842</v>
+        <v>2.079694361257286E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>45.95545966666666</v>
+        <v>0.03105</v>
       </c>
       <c r="H11">
-        <v>137.866379</v>
+        <v>0.09315</v>
       </c>
       <c r="I11">
-        <v>0.8974710116800845</v>
+        <v>8.458867525761356E-06</v>
       </c>
       <c r="J11">
-        <v>0.8984048896509301</v>
+        <v>8.459377640922458E-06</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N11">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O11">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P11">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q11">
-        <v>213.3711762546035</v>
+        <v>0.1725892515</v>
       </c>
       <c r="R11">
-        <v>1280.227057527621</v>
+        <v>1.035535509</v>
       </c>
       <c r="S11">
-        <v>0.05450151774711148</v>
+        <v>3.660542359263292E-07</v>
       </c>
       <c r="T11">
-        <v>0.03848161539573704</v>
+        <v>2.539011004780093E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>45.95545966666666</v>
+        <v>0.03105</v>
       </c>
       <c r="H12">
-        <v>137.866379</v>
+        <v>0.09315</v>
       </c>
       <c r="I12">
-        <v>0.8974710116800845</v>
+        <v>8.458867525761356E-06</v>
       </c>
       <c r="J12">
-        <v>0.8984048896509301</v>
+        <v>8.459377640922458E-06</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N12">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O12">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P12">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q12">
-        <v>348.1167582848565</v>
+        <v>1.59720795315</v>
       </c>
       <c r="R12">
-        <v>3133.050824563709</v>
+        <v>14.37487157835</v>
       </c>
       <c r="S12">
-        <v>0.0889196564070574</v>
+        <v>3.387608045254079E-06</v>
       </c>
       <c r="T12">
-        <v>0.09417458890377831</v>
+        <v>3.524549067851544E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>45.95545966666666</v>
+        <v>0.03105</v>
       </c>
       <c r="H13">
-        <v>137.866379</v>
+        <v>0.09315</v>
       </c>
       <c r="I13">
-        <v>0.8974710116800845</v>
+        <v>8.458867525761356E-06</v>
       </c>
       <c r="J13">
-        <v>0.8984048896509301</v>
+        <v>8.459377640922458E-06</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N13">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O13">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P13">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q13">
-        <v>1051.709551528616</v>
+        <v>0.77952433635</v>
       </c>
       <c r="R13">
-        <v>9465.385963757548</v>
+        <v>7.015719027149999</v>
       </c>
       <c r="S13">
-        <v>0.2686387533386758</v>
+        <v>1.65333694218251E-06</v>
       </c>
       <c r="T13">
-        <v>0.2845146414363041</v>
+        <v>1.720171607980943E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.159682</v>
+        <v>111.328799</v>
       </c>
       <c r="H14">
-        <v>0.319364</v>
+        <v>333.986397</v>
       </c>
       <c r="I14">
-        <v>0.003118453544509918</v>
+        <v>0.03032900362457692</v>
       </c>
       <c r="J14">
-        <v>0.002081132334508326</v>
+        <v>0.03033083262645251</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N14">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O14">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P14">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q14">
-        <v>1.26633015665</v>
+        <v>1045.477952515497</v>
       </c>
       <c r="R14">
-        <v>5.065320626599999</v>
+        <v>6272.867715092983</v>
       </c>
       <c r="S14">
-        <v>0.0003234594133933467</v>
+        <v>0.002217412902366538</v>
       </c>
       <c r="T14">
-        <v>0.000152255585493833</v>
+        <v>0.001538033222591389</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.159682</v>
+        <v>111.328799</v>
       </c>
       <c r="H15">
-        <v>0.319364</v>
+        <v>333.986397</v>
       </c>
       <c r="I15">
-        <v>0.003118453544509918</v>
+        <v>0.03032900362457692</v>
       </c>
       <c r="J15">
-        <v>0.002081132334508326</v>
+        <v>0.03033083262645251</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>19.794779</v>
       </c>
       <c r="O15">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P15">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q15">
-        <v>1.053623300092666</v>
+        <v>734.5763241801403</v>
       </c>
       <c r="R15">
-        <v>6.321739800555999</v>
+        <v>6611.186917621263</v>
       </c>
       <c r="S15">
-        <v>0.0002691275831945071</v>
+        <v>0.001558004178941195</v>
       </c>
       <c r="T15">
-        <v>0.0001900215732877297</v>
+        <v>0.001620985103128759</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.159682</v>
+        <v>111.328799</v>
       </c>
       <c r="H16">
-        <v>0.319364</v>
+        <v>333.986397</v>
       </c>
       <c r="I16">
-        <v>0.003118453544509918</v>
+        <v>0.03032900362457692</v>
       </c>
       <c r="J16">
-        <v>0.002081132334508326</v>
+        <v>0.03033083262645251</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N16">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O16">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P16">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q16">
-        <v>4.283265416722</v>
+        <v>3379.117836554606</v>
       </c>
       <c r="R16">
-        <v>25.699592500332</v>
+        <v>30412.06052899146</v>
       </c>
       <c r="S16">
-        <v>0.001094076858096837</v>
+        <v>0.007166960787039668</v>
       </c>
       <c r="T16">
-        <v>0.0007724894022587138</v>
+        <v>0.007456678760896803</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.159682</v>
+        <v>111.328799</v>
       </c>
       <c r="H17">
-        <v>0.319364</v>
+        <v>333.986397</v>
       </c>
       <c r="I17">
-        <v>0.003118453544509918</v>
+        <v>0.03032900362457692</v>
       </c>
       <c r="J17">
-        <v>0.002081132334508326</v>
+        <v>0.03033083262645251</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N17">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O17">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P17">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q17">
-        <v>0.741403446159</v>
+        <v>618.81333622557</v>
       </c>
       <c r="R17">
-        <v>2.965613784636</v>
+        <v>3712.88001735342</v>
       </c>
       <c r="S17">
-        <v>0.0001893770929508693</v>
+        <v>0.001312475956667984</v>
       </c>
       <c r="T17">
-        <v>8.914169435931993E-05</v>
+        <v>0.0009103544148468632</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.159682</v>
+        <v>111.328799</v>
       </c>
       <c r="H18">
-        <v>0.319364</v>
+        <v>333.986397</v>
       </c>
       <c r="I18">
-        <v>0.003118453544509918</v>
+        <v>0.03032900362457692</v>
       </c>
       <c r="J18">
-        <v>0.002081132334508326</v>
+        <v>0.03033083262645251</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N18">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O18">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P18">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q18">
-        <v>1.209605574607333</v>
+        <v>5726.738910706531</v>
       </c>
       <c r="R18">
-        <v>7.257633447643999</v>
+        <v>51540.65019635878</v>
       </c>
       <c r="S18">
-        <v>0.0003089702219797563</v>
+        <v>0.01214616216299112</v>
       </c>
       <c r="T18">
-        <v>0.0002181530669683161</v>
+        <v>0.01263715989502357</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.159682</v>
+        <v>111.328799</v>
       </c>
       <c r="H19">
-        <v>0.319364</v>
+        <v>333.986397</v>
       </c>
       <c r="I19">
-        <v>0.003118453544509918</v>
+        <v>0.03032900362457692</v>
       </c>
       <c r="J19">
-        <v>0.002081132334508326</v>
+        <v>0.03033083262645251</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N19">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O19">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P19">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q19">
-        <v>3.654388092847332</v>
+        <v>2794.960005060146</v>
       </c>
       <c r="R19">
-        <v>21.92632855708399</v>
+        <v>25154.64004554132</v>
       </c>
       <c r="S19">
-        <v>0.0009334423748946019</v>
+        <v>0.005927987636570411</v>
       </c>
       <c r="T19">
-        <v>0.0006590710121404132</v>
+        <v>0.006167621229965127</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7634460000000001</v>
+        <v>0.280099</v>
       </c>
       <c r="H20">
-        <v>2.290338</v>
+        <v>0.560198</v>
       </c>
       <c r="I20">
-        <v>0.01490945056263022</v>
+        <v>7.630661304664186E-05</v>
       </c>
       <c r="J20">
-        <v>0.01492496483245805</v>
+        <v>5.087414316360149E-05</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N20">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O20">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P20">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q20">
-        <v>6.05437489995</v>
+        <v>2.630382539397</v>
       </c>
       <c r="R20">
-        <v>36.3262493997</v>
+        <v>10.521530157588</v>
       </c>
       <c r="S20">
-        <v>0.001546472334499173</v>
+        <v>5.578926047158426E-06</v>
       </c>
       <c r="T20">
-        <v>0.001091910024826763</v>
+        <v>2.579755172571446E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7634460000000001</v>
+        <v>0.280099</v>
       </c>
       <c r="H21">
-        <v>2.290338</v>
+        <v>0.560198</v>
       </c>
       <c r="I21">
-        <v>0.01490945056263022</v>
+        <v>7.630661304664186E-05</v>
       </c>
       <c r="J21">
-        <v>0.01492496483245805</v>
+        <v>5.087414316360149E-05</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>19.794779</v>
       </c>
       <c r="O21">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P21">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q21">
-        <v>5.037414949478</v>
+        <v>1.848165934373666</v>
       </c>
       <c r="R21">
-        <v>45.336734545302</v>
+        <v>11.088995606242</v>
       </c>
       <c r="S21">
-        <v>0.001286709691007839</v>
+        <v>3.919878921151836E-06</v>
       </c>
       <c r="T21">
-        <v>0.001362751061862553</v>
+        <v>2.718891011607651E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7634460000000001</v>
+        <v>0.280099</v>
       </c>
       <c r="H22">
-        <v>2.290338</v>
+        <v>0.560198</v>
       </c>
       <c r="I22">
-        <v>0.01490945056263022</v>
+        <v>7.630661304664186E-05</v>
       </c>
       <c r="J22">
-        <v>0.01492496483245805</v>
+        <v>5.087414316360149E-05</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N22">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O22">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P22">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q22">
-        <v>20.478462502566</v>
+        <v>8.501731226805999</v>
       </c>
       <c r="R22">
-        <v>184.306162523094</v>
+        <v>51.010387360836</v>
       </c>
       <c r="S22">
-        <v>0.005230825021020515</v>
+        <v>1.803179920668168E-05</v>
       </c>
       <c r="T22">
-        <v>0.005539953885191877</v>
+        <v>1.250714569820299E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7634460000000001</v>
+        <v>0.280099</v>
       </c>
       <c r="H23">
-        <v>2.290338</v>
+        <v>0.560198</v>
       </c>
       <c r="I23">
-        <v>0.01490945056263022</v>
+        <v>7.630661304664186E-05</v>
       </c>
       <c r="J23">
-        <v>0.01492496483245805</v>
+        <v>5.087414316360149E-05</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N23">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O23">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P23">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q23">
-        <v>3.544679396277</v>
+        <v>1.55691068457</v>
       </c>
       <c r="R23">
-        <v>21.268076377662</v>
+        <v>6.227642738279999</v>
       </c>
       <c r="S23">
-        <v>0.0009054194217568001</v>
+        <v>3.302139305273072E-06</v>
       </c>
       <c r="T23">
-        <v>0.0006392849850813998</v>
+        <v>1.52694459136425E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7634460000000001</v>
+        <v>0.280099</v>
       </c>
       <c r="H24">
-        <v>2.290338</v>
+        <v>0.560198</v>
       </c>
       <c r="I24">
-        <v>0.01490945056263022</v>
+        <v>7.630661304664186E-05</v>
       </c>
       <c r="J24">
-        <v>0.01492496483245805</v>
+        <v>5.087414316360149E-05</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N24">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O24">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P24">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q24">
-        <v>5.783172414622</v>
+        <v>14.40825605376367</v>
       </c>
       <c r="R24">
-        <v>52.048551731598</v>
+        <v>86.44953632258201</v>
       </c>
       <c r="S24">
-        <v>0.001477198933439944</v>
+        <v>3.055927941602648E-05</v>
       </c>
       <c r="T24">
-        <v>0.001564497748945026</v>
+        <v>2.119640728622973E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7634460000000001</v>
+        <v>0.280099</v>
       </c>
       <c r="H25">
-        <v>2.290338</v>
+        <v>0.560198</v>
       </c>
       <c r="I25">
-        <v>0.01490945056263022</v>
+        <v>7.630661304664186E-05</v>
       </c>
       <c r="J25">
-        <v>0.01492496483245805</v>
+        <v>5.087414316360149E-05</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>22.88541033333333</v>
+        <v>25.10545366666667</v>
       </c>
       <c r="N25">
-        <v>68.65623099999999</v>
+        <v>75.316361</v>
       </c>
       <c r="O25">
-        <v>0.2993286132281626</v>
+        <v>0.1954560627823165</v>
       </c>
       <c r="P25">
-        <v>0.3166886608852391</v>
+        <v>0.2033449363531861</v>
       </c>
       <c r="Q25">
-        <v>17.471774977342</v>
+        <v>7.032012466579666</v>
       </c>
       <c r="R25">
-        <v>157.245974796078</v>
+        <v>42.192074799478</v>
       </c>
       <c r="S25">
-        <v>0.004462825160905954</v>
+        <v>1.491459015035036E-05</v>
       </c>
       <c r="T25">
-        <v>0.004726567126550426</v>
+        <v>1.034499940362542E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.295871000000001</v>
+        <v>3522.447265666667</v>
       </c>
       <c r="H26">
-        <v>12.887613</v>
+        <v>10567.341797</v>
       </c>
       <c r="I26">
-        <v>0.08389470414140211</v>
+        <v>0.9596107821821145</v>
       </c>
       <c r="J26">
-        <v>0.08398200213214344</v>
+        <v>0.9596686518682463</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.930325</v>
+        <v>9.390903</v>
       </c>
       <c r="N26">
-        <v>15.86065</v>
+        <v>18.781806</v>
       </c>
       <c r="O26">
-        <v>0.1037243007717083</v>
+        <v>0.07311196008330691</v>
       </c>
       <c r="P26">
-        <v>0.07315997304409949</v>
+        <v>0.05070857241320897</v>
       </c>
       <c r="Q26">
-        <v>34.06765318807501</v>
+        <v>33078.9605944909</v>
       </c>
       <c r="R26">
-        <v>204.40591912845</v>
+        <v>198473.7635669454</v>
       </c>
       <c r="S26">
-        <v>0.008701919525516279</v>
+        <v>0.07015902520240967</v>
       </c>
       <c r="T26">
-        <v>0.006144121012177119</v>
+        <v>0.0486634273259476</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.295871000000001</v>
+        <v>3522.447265666667</v>
       </c>
       <c r="H27">
-        <v>12.887613</v>
+        <v>10567.341797</v>
       </c>
       <c r="I27">
-        <v>0.08389470414140211</v>
+        <v>0.9596107821821145</v>
       </c>
       <c r="J27">
-        <v>0.08398200213214344</v>
+        <v>0.9596686518682463</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>19.794779</v>
       </c>
       <c r="O27">
-        <v>0.08630161692429571</v>
+        <v>0.0513701075784328</v>
       </c>
       <c r="P27">
-        <v>0.09130681895470279</v>
+        <v>0.05344347526137627</v>
       </c>
       <c r="Q27">
-        <v>28.34527235250301</v>
+        <v>23242.02172100865</v>
       </c>
       <c r="R27">
-        <v>255.107451172527</v>
+        <v>209178.1954890779</v>
       </c>
       <c r="S27">
-        <v>0.00724024861878841</v>
+        <v>0.04929530911411927</v>
       </c>
       <c r="T27">
-        <v>0.007668129464133084</v>
+        <v>0.05128802785523894</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.295871000000001</v>
+        <v>3522.447265666667</v>
       </c>
       <c r="H28">
-        <v>12.887613</v>
+        <v>10567.341797</v>
       </c>
       <c r="I28">
-        <v>0.08389470414140211</v>
+        <v>0.9596107821821145</v>
       </c>
       <c r="J28">
-        <v>0.08398200213214344</v>
+        <v>0.9596686518682463</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>26.823721</v>
+        <v>30.352594</v>
       </c>
       <c r="N28">
-        <v>80.471163</v>
+        <v>91.057782</v>
       </c>
       <c r="O28">
-        <v>0.3508395563637543</v>
+        <v>0.2363071624691279</v>
       </c>
       <c r="P28">
-        <v>0.371187064584827</v>
+        <v>0.2458448422017136</v>
       </c>
       <c r="Q28">
-        <v>115.231245155991</v>
+        <v>106915.4117411905</v>
       </c>
       <c r="R28">
-        <v>1037.081206403919</v>
+        <v>962238.7056707144</v>
       </c>
       <c r="S28">
-        <v>0.02943358078223794</v>
+        <v>0.2267629010122359</v>
       </c>
       <c r="T28">
-        <v>0.031173032849387</v>
+        <v>0.2359295882844802</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.295871000000001</v>
+        <v>3522.447265666667</v>
       </c>
       <c r="H29">
-        <v>12.887613</v>
+        <v>10567.341797</v>
       </c>
       <c r="I29">
-        <v>0.08389470414140211</v>
+        <v>0.9596107821821145</v>
       </c>
       <c r="J29">
-        <v>0.08398200213214344</v>
+        <v>0.9596686518682463</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.6429995</v>
+        <v>5.55843</v>
       </c>
       <c r="N29">
-        <v>9.285999</v>
+        <v>11.11686</v>
       </c>
       <c r="O29">
-        <v>0.06072788651422123</v>
+        <v>0.04327461504882497</v>
       </c>
       <c r="P29">
-        <v>0.04283326575692263</v>
+        <v>0.03001415839975699</v>
       </c>
       <c r="Q29">
-        <v>19.9457269050645</v>
+        <v>19579.27655489957</v>
       </c>
       <c r="R29">
-        <v>119.674361430387</v>
+        <v>117475.6593293974</v>
       </c>
       <c r="S29">
-        <v>0.005094748072243234</v>
+        <v>0.04152678719563284</v>
       </c>
       <c r="T29">
-        <v>0.003597223416124543</v>
+        <v>0.0288036469284548</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.295871000000001</v>
+        <v>3522.447265666667</v>
       </c>
       <c r="H30">
-        <v>12.887613</v>
+        <v>10567.341797</v>
       </c>
       <c r="I30">
-        <v>0.08389470414140211</v>
+        <v>0.9596107821821145</v>
       </c>
       <c r="J30">
-        <v>0.08398200213214344</v>
+        <v>0.9596686518682463</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.575090333333333</v>
+        <v>51.43986966666667</v>
       </c>
       <c r="N30">
-        <v>22.725271</v>
+        <v>154.319609</v>
       </c>
       <c r="O30">
-        <v>0.09907802619785785</v>
+        <v>0.4004800920379908</v>
       </c>
       <c r="P30">
-        <v>0.1048242167742089</v>
+        <v>0.4166440153707581</v>
       </c>
       <c r="Q30">
-        <v>32.541610885347</v>
+        <v>181194.2282535998</v>
       </c>
       <c r="R30">
-        <v>292.874497968123</v>
+        <v>1630748.054282398</v>
       </c>
       <c r="S30">
-        <v>0.008312121694783372</v>
+        <v>0.3843050143689415</v>
       </c>
       <c r="T30">
-        <v>0.008803347596631875</v>
+        <v>0.3998402005398284</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3522.447265666667</v>
+      </c>
+      <c r="H31">
+        <v>10567.341797</v>
+      </c>
+      <c r="I31">
+        <v>0.9596107821821145</v>
+      </c>
+      <c r="J31">
+        <v>0.9596686518682463</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>25.10545366666667</v>
+      </c>
+      <c r="N31">
+        <v>75.316361</v>
+      </c>
+      <c r="O31">
+        <v>0.1954560627823165</v>
+      </c>
+      <c r="P31">
+        <v>0.2033449363531861</v>
+      </c>
+      <c r="Q31">
+        <v>88432.6366214712</v>
+      </c>
+      <c r="R31">
+        <v>795893.7295932408</v>
+      </c>
+      <c r="S31">
+        <v>0.1875617452887752</v>
+      </c>
+      <c r="T31">
+        <v>0.1951437609342964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>36.23297033333333</v>
+      </c>
+      <c r="H32">
+        <v>108.698911</v>
+      </c>
+      <c r="I32">
+        <v>0.009870850116409273</v>
+      </c>
+      <c r="J32">
+        <v>0.009871445381707141</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>9.390903</v>
+      </c>
+      <c r="N32">
+        <v>18.781806</v>
+      </c>
+      <c r="O32">
+        <v>0.07311196008330691</v>
+      </c>
+      <c r="P32">
+        <v>0.05070857241320897</v>
+      </c>
+      <c r="Q32">
+        <v>340.260309802211</v>
+      </c>
+      <c r="R32">
+        <v>2041.561858813266</v>
+      </c>
+      <c r="S32">
+        <v>0.0007216771996992202</v>
+      </c>
+      <c r="T32">
+        <v>0.0005005669029613339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>36.23297033333333</v>
+      </c>
+      <c r="H33">
+        <v>108.698911</v>
+      </c>
+      <c r="I33">
+        <v>0.009870850116409273</v>
+      </c>
+      <c r="J33">
+        <v>0.009871445381707141</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>6.598259666666666</v>
+      </c>
+      <c r="N33">
+        <v>19.794779</v>
+      </c>
+      <c r="O33">
+        <v>0.0513701075784328</v>
+      </c>
+      <c r="P33">
+        <v>0.05344347526137627</v>
+      </c>
+      <c r="Q33">
+        <v>239.0745467539632</v>
+      </c>
+      <c r="R33">
+        <v>2151.670920785669</v>
+      </c>
+      <c r="S33">
+        <v>0.0005070666323705303</v>
+      </c>
+      <c r="T33">
+        <v>0.0005275643470512925</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>36.23297033333333</v>
+      </c>
+      <c r="H34">
+        <v>108.698911</v>
+      </c>
+      <c r="I34">
+        <v>0.009870850116409273</v>
+      </c>
+      <c r="J34">
+        <v>0.009871445381707141</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>30.352594</v>
+      </c>
+      <c r="N34">
+        <v>91.057782</v>
+      </c>
+      <c r="O34">
+        <v>0.2363071624691279</v>
+      </c>
+      <c r="P34">
+        <v>0.2458448422017136</v>
+      </c>
+      <c r="Q34">
+        <v>1099.764637941711</v>
+      </c>
+      <c r="R34">
+        <v>9897.881741475403</v>
+      </c>
+      <c r="S34">
+        <v>0.002332552582166737</v>
+      </c>
+      <c r="T34">
+        <v>0.002426843932168626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>36.23297033333333</v>
+      </c>
+      <c r="H35">
+        <v>108.698911</v>
+      </c>
+      <c r="I35">
+        <v>0.009870850116409273</v>
+      </c>
+      <c r="J35">
+        <v>0.009871445381707141</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>5.55843</v>
+      </c>
+      <c r="N35">
+        <v>11.11686</v>
+      </c>
+      <c r="O35">
+        <v>0.04327461504882497</v>
+      </c>
+      <c r="P35">
+        <v>0.03001415839975699</v>
+      </c>
+      <c r="Q35">
+        <v>201.39842928991</v>
+      </c>
+      <c r="R35">
+        <v>1208.39057573946</v>
+      </c>
+      <c r="S35">
+        <v>0.0004271572389922605</v>
+      </c>
+      <c r="T35">
+        <v>0.0002962831253211078</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>4.295871000000001</v>
-      </c>
-      <c r="H31">
-        <v>12.887613</v>
-      </c>
-      <c r="I31">
-        <v>0.08389470414140211</v>
-      </c>
-      <c r="J31">
-        <v>0.08398200213214344</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>22.88541033333333</v>
-      </c>
-      <c r="N31">
-        <v>68.65623099999999</v>
-      </c>
-      <c r="O31">
-        <v>0.2993286132281626</v>
-      </c>
-      <c r="P31">
-        <v>0.3166886608852391</v>
-      </c>
-      <c r="Q31">
-        <v>98.312770574067</v>
-      </c>
-      <c r="R31">
-        <v>884.814935166603</v>
-      </c>
-      <c r="S31">
-        <v>0.02511208544783288</v>
-      </c>
-      <c r="T31">
-        <v>0.0265961477936898</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>36.23297033333333</v>
+      </c>
+      <c r="H36">
+        <v>108.698911</v>
+      </c>
+      <c r="I36">
+        <v>0.009870850116409273</v>
+      </c>
+      <c r="J36">
+        <v>0.009871445381707141</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>51.43986966666667</v>
+      </c>
+      <c r="N36">
+        <v>154.319609</v>
+      </c>
+      <c r="O36">
+        <v>0.4004800920379908</v>
+      </c>
+      <c r="P36">
+        <v>0.4166440153707581</v>
+      </c>
+      <c r="Q36">
+        <v>1863.819271582867</v>
+      </c>
+      <c r="R36">
+        <v>16774.3734442458</v>
+      </c>
+      <c r="S36">
+        <v>0.003953078963112797</v>
+      </c>
+      <c r="T36">
+        <v>0.004112878641347589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>36.23297033333333</v>
+      </c>
+      <c r="H37">
+        <v>108.698911</v>
+      </c>
+      <c r="I37">
+        <v>0.009870850116409273</v>
+      </c>
+      <c r="J37">
+        <v>0.009871445381707141</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>25.10545366666667</v>
+      </c>
+      <c r="N37">
+        <v>75.316361</v>
+      </c>
+      <c r="O37">
+        <v>0.1954560627823165</v>
+      </c>
+      <c r="P37">
+        <v>0.2033449363531861</v>
+      </c>
+      <c r="Q37">
+        <v>909.6451579092079</v>
+      </c>
+      <c r="R37">
+        <v>8186.806421182871</v>
+      </c>
+      <c r="S37">
+        <v>0.001929317500067727</v>
+      </c>
+      <c r="T37">
+        <v>0.002007308432857191</v>
       </c>
     </row>
   </sheetData>
